--- a/Dow 30/Cisco/Cisco.xlsx
+++ b/Dow 30/Cisco/Cisco.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Cisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE0C956-32D2-4B21-AA53-71FD6C7FD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77515C3-EA2D-443C-BD23-18D521A37EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{9CA24CEB-08F8-4FB7-AADA-588D4B4B3B81}"/>
+    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" xr2:uid="{9CA24CEB-08F8-4FB7-AADA-588D4B4B3B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
     <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -199,9 +199,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -328,6 +328,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,42 +367,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504F68-B565-4A80-B817-6F8095EDA1FD}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,40 +719,40 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <v>3</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <v>4</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="9">
         <v>5</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>2017</v>
       </c>
       <c r="F5" s="4">
@@ -777,7 +777,7 @@
       <c r="I5" s="4">
         <v>2021</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>2022</v>
       </c>
       <c r="K5" s="4">
@@ -797,49 +797,49 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>12739</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>12835</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <v>14562</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>14122</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>13765</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15">
         <v>17862</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <v>19209</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <v>20559</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="16">
         <v>21346</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="16">
         <v>18754</v>
       </c>
     </row>
@@ -847,24 +847,24 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18">
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15">
         <v>17291</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>17943</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <v>19110</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <v>21346</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="16">
         <v>18754</v>
       </c>
     </row>
@@ -874,24 +874,24 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="20">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17">
         <v>17157</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <v>16510</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="18">
         <v>17666</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>21346</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <v>18754</v>
       </c>
     </row>
@@ -901,43 +901,43 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <f>21.8%*E6</f>
         <v>2777.1019999999999</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <f>21%*F6</f>
         <v>2695.35</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <f>20.2%*G6</f>
         <v>2941.5239999999999</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <f>19.7%*H6</f>
         <v>2782.0339999999997</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <f>20.1%*I6</f>
         <v>2766.7650000000003</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <f>21%*J8</f>
         <v>3631.1099999999997</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <f>21%*K8</f>
         <v>3768.0299999999997</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f t="shared" ref="L10:N10" si="0">21%*L8</f>
         <v>4013.1</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>4482.66</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="20">
         <f t="shared" si="0"/>
         <v>3938.3399999999997</v>
       </c>
@@ -948,34 +948,34 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>1915</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>1961</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>1774</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>1700</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>1731</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <v>2015</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <v>1564</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>1121</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>1174</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="18">
         <v>1223</v>
       </c>
     </row>
@@ -983,49 +983,49 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>1126</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>1160</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <v>1275</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>1227</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <v>1146</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15">
         <v>600</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="16">
         <v>908</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>1092</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="16">
         <v>1000</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -1033,24 +1033,24 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15">
         <v>507</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <v>661</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="16">
         <v>767</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="16">
         <v>1000</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -1058,65 +1058,65 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15">
         <v>431</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="16">
         <v>423</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="16">
         <v>450</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="16">
         <v>1000</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="22">
         <v>6380</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>6498</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>7178</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>7837</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <v>8827</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="22">
         <f>2.7%*I16+I16</f>
         <v>9065.3289999999997</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="23">
         <f>-4.3%*J16+J16</f>
         <v>8675.5198529999998</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="23">
         <f>5.4%*K16+K16</f>
         <v>9143.9979250619999</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="23">
         <f>-4.8%*L16+L16</f>
         <v>8705.0860246590237</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="23">
         <f>4.2%*M16+M16</f>
         <v>9070.6996376947027</v>
       </c>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9002E-97C8-4557-A359-DE3B9CA88372}">
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -1162,14 +1162,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1196,27 +1196,27 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <f>'Street Estimates'!I6</f>
         <v>13765</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <f>'Street Estimates'!J8</f>
         <v>17291</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <f>'Street Estimates'!K8</f>
         <v>17943</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="13">
         <f>'Street Estimates'!L8</f>
         <v>19110</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="13">
         <f>'Street Estimates'!M8</f>
         <v>21346</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="13">
         <f>'Street Estimates'!N8</f>
         <v>18754</v>
       </c>
@@ -1233,27 +1233,27 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <f>-'Street Estimates'!I10</f>
         <v>-2766.7650000000003</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <f>-'Street Estimates'!J10</f>
         <v>-3631.1099999999997</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <f>-'Street Estimates'!K10</f>
         <v>-3768.0299999999997</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="13">
         <f>-'Street Estimates'!L10</f>
         <v>-4013.1</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="13">
         <f>-'Street Estimates'!M10</f>
         <v>-4482.66</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <f>-'Street Estimates'!N10</f>
         <v>-3938.3399999999997</v>
       </c>
@@ -1262,33 +1262,33 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="35">
         <v>3.39E-2</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="12">
         <f>'Street Estimates'!I11</f>
         <v>1731</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <f>'Street Estimates'!J11</f>
         <v>2015</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <f>'Street Estimates'!K11</f>
         <v>1564</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <f>'Street Estimates'!L11</f>
         <v>1121</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="13">
         <f>'Street Estimates'!M11</f>
         <v>1174</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="13">
         <f>'Street Estimates'!N11</f>
         <v>1223</v>
       </c>
@@ -1297,33 +1297,33 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="34">
         <v>14.5</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="12">
         <f>-'Street Estimates'!I12</f>
         <v>-1146</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <f>-'Street Estimates'!J14</f>
         <v>-507</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <f>-'Street Estimates'!K14</f>
         <v>-661</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <f>-'Street Estimates'!L14</f>
         <v>-767</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="13">
         <f>-'Street Estimates'!M14</f>
         <v>-1000</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <f>-'Street Estimates'!N14</f>
         <v>-1000</v>
       </c>
@@ -1332,33 +1332,33 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="35">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="12">
         <f>'Street Estimates'!I16</f>
         <v>8827</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <f>'Street Estimates'!J16</f>
         <v>9065.3289999999997</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="13">
         <f>'Street Estimates'!K16</f>
         <v>8675.5198529999998</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="13">
         <f>'Street Estimates'!L16</f>
         <v>9143.9979250619999</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="13">
         <f>'Street Estimates'!M16</f>
         <v>8705.0860246590237</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="13">
         <f>'Street Estimates'!N16</f>
         <v>9070.6996376947027</v>
       </c>
@@ -1367,33 +1367,33 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="36">
         <v>0.21</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="25">
         <f>SUM(J6:J10)</f>
         <v>20410.235000000001</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="26">
         <f>SUM(K6:K10)</f>
         <v>24233.218999999997</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="26">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>23753.489852999999</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="26">
         <f t="shared" si="0"/>
         <v>24594.897925062</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="26">
         <f t="shared" si="0"/>
         <v>25742.426024659024</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="26">
         <f t="shared" si="0"/>
         <v>24109.359637694703</v>
       </c>
@@ -1402,18 +1402,18 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="35">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="39"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="34">
         <v>0.96</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="35">
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="33">
         <v>41275</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="33">
         <v>12694</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="27">
         <f>G12+G14*(G15-G12)</f>
         <v>6.2724000000000002E-2</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="29">
         <f>G17/SUM(G16:G17)</f>
         <v>0.23520910152124366</v>
       </c>
@@ -1477,16 +1477,16 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="35">
+      <c r="G22" s="30">
         <f>G16/SUM(G16:G17)</f>
         <v>0.76479089847875636</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="27">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>5.6518243065463505E-2</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <f>O6+O8</f>
         <v>19977</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="13">
         <f>G26*G9</f>
         <v>289666.5</v>
       </c>
@@ -1523,20 +1523,20 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="13">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>1102060.264241914</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="24">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21">
         <f>AVERAGE(G27:G28)</f>
         <v>695863.38212095702</v>
       </c>
@@ -1569,23 +1569,23 @@
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="31">
         <f>1/(1+$G$23)^K5</f>
         <v>0.94650518962978125</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="31">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.89587207399610824</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="31">
         <f t="shared" si="1"/>
         <v>0.84794756728171194</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="31">
         <f t="shared" si="1"/>
         <v>0.80258677296608849</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="31">
         <f t="shared" si="1"/>
         <v>0.75965254574062191</v>
       </c>
@@ -1594,23 +1594,23 @@
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="13">
         <f>K11*G32</f>
         <v>22936.867544935016</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="13">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
         <v>21280.088219252622</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="13">
         <f t="shared" si="2"/>
         <v>20855.183863098348</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="13">
         <f t="shared" si="2"/>
         <v>20660.530631449339</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="13">
         <f t="shared" si="2"/>
         <v>18314.736424950977</v>
       </c>
@@ -1627,16 +1627,16 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="17">
+      <c r="K34" s="14">
         <f>K32*G29</f>
         <v>528614.38971586421</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="32">
         <f>SUM(G33:K34)</f>
         <v>632661.79639955051</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="16">
         <v>20110</v>
       </c>
     </row>
@@ -1662,13 +1662,13 @@
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
@@ -1677,22 +1677,22 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="21">
+      <c r="F41" s="18">
         <f>G17</f>
         <v>12694</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <f>F35+F38-F41</f>
         <v>640077.79639955051</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="16"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
@@ -1701,7 +1701,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="21">
+      <c r="F44" s="18">
         <v>4140</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="31">
         <f>F42/F44</f>
         <v>154.60816338153393</v>
       </c>
@@ -1718,16 +1718,16 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="31">
         <f>F45-42.86</f>
         <v>111.74816338153393</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="37">
         <v>0.29249999999999998</v>
       </c>
     </row>

--- a/Dow 30/Cisco/Cisco.xlsx
+++ b/Dow 30/Cisco/Cisco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Cisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77515C3-EA2D-443C-BD23-18D521A37EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5383C03B-B8DA-47FD-ADED-E9C129010F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" xr2:uid="{9CA24CEB-08F8-4FB7-AADA-588D4B4B3B81}"/>
+    <workbookView minimized="1" xWindow="27630" yWindow="-6195" windowWidth="18000" windowHeight="13185" activeTab="1" xr2:uid="{9CA24CEB-08F8-4FB7-AADA-588D4B4B3B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2805FB"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -332,18 +339,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -353,10 +355,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +371,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +390,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2805FB"/>
+      <color rgb="FF3333FF"/>
+      <color rgb="FF6600FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -690,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C504F68-B565-4A80-B817-6F8095EDA1FD}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,20 +736,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="38" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="8"/>
@@ -797,49 +814,49 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="34">
         <v>12739</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="35">
         <v>12835</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="35">
         <v>14562</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="35">
         <v>14122</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="35">
         <v>13765</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="34">
         <v>17862</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="35">
         <v>19209</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="35">
         <v>20559</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="35">
         <v>21346</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="35">
         <v>18754</v>
       </c>
     </row>
@@ -847,24 +864,24 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15">
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="34">
         <v>17291</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="35">
         <v>17943</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="35">
         <v>19110</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="35">
         <v>21346</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="35">
         <v>18754</v>
       </c>
     </row>
@@ -874,24 +891,24 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40">
         <v>17157</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="41">
         <v>16510</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="41">
         <v>17666</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="41">
         <v>21346</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="41">
         <v>18754</v>
       </c>
     </row>
@@ -901,43 +918,43 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <f>21.8%*E6</f>
         <v>2777.1019999999999</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <f>21%*F6</f>
         <v>2695.35</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <f>20.2%*G6</f>
         <v>2941.5239999999999</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <f>19.7%*H6</f>
         <v>2782.0339999999997</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <f>20.1%*I6</f>
         <v>2766.7650000000003</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <f>21%*J8</f>
         <v>3631.1099999999997</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <f>21%*K8</f>
         <v>3768.0299999999997</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <f t="shared" ref="L10:N10" si="0">21%*L8</f>
         <v>4013.1</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <f t="shared" si="0"/>
         <v>4482.66</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <f t="shared" si="0"/>
         <v>3938.3399999999997</v>
       </c>
@@ -948,34 +965,34 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="17">
+      <c r="E11" s="40">
         <v>1915</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="41">
         <v>1961</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="41">
         <v>1774</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="41">
         <v>1700</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="41">
         <v>1731</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="40">
         <v>2015</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="41">
         <v>1564</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="41">
         <v>1121</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="41">
         <v>1174</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="41">
         <v>1223</v>
       </c>
     </row>
@@ -983,49 +1000,49 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="34">
         <v>1126</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="35">
         <v>1160</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="35">
         <v>1275</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="35">
         <v>1227</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="35">
         <v>1146</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15">
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="34">
         <v>600</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="35">
         <v>908</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="35">
         <v>1092</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="35">
         <v>1000</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="35">
         <v>1000</v>
       </c>
     </row>
@@ -1033,24 +1050,24 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15">
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="34">
         <v>507</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="35">
         <v>661</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="35">
         <v>767</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="35">
         <v>1000</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="35">
         <v>1000</v>
       </c>
     </row>
@@ -1058,24 +1075,24 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15">
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="34">
         <v>431</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="35">
         <v>423</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="35">
         <v>450</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="35">
         <v>1000</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="35">
         <v>1000</v>
       </c>
     </row>
@@ -1085,38 +1102,38 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="22">
+      <c r="E16" s="42">
         <v>6380</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="43">
         <v>6498</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="43">
         <v>7178</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="43">
         <v>7837</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="43">
         <v>8827</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="42">
         <f>2.7%*I16+I16</f>
         <v>9065.3289999999997</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="43">
         <f>-4.3%*J16+J16</f>
         <v>8675.5198529999998</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="43">
         <f>5.4%*K16+K16</f>
         <v>9143.9979250619999</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="43">
         <f>-4.8%*L16+L16</f>
         <v>8705.0860246590237</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="43">
         <f>4.2%*M16+M16</f>
         <v>9070.6996376947027</v>
       </c>
@@ -1135,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9002E-97C8-4557-A359-DE3B9CA88372}">
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,14 +1179,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1196,27 +1213,27 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="44">
         <f>'Street Estimates'!I6</f>
         <v>13765</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="45">
         <f>'Street Estimates'!J8</f>
         <v>17291</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="45">
         <f>'Street Estimates'!K8</f>
         <v>17943</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="45">
         <f>'Street Estimates'!L8</f>
         <v>19110</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="45">
         <f>'Street Estimates'!M8</f>
         <v>21346</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="45">
         <f>'Street Estimates'!N8</f>
         <v>18754</v>
       </c>
@@ -1233,27 +1250,27 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="44">
         <f>-'Street Estimates'!I10</f>
         <v>-2766.7650000000003</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="45">
         <f>-'Street Estimates'!J10</f>
         <v>-3631.1099999999997</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="45">
         <f>-'Street Estimates'!K10</f>
         <v>-3768.0299999999997</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="45">
         <f>-'Street Estimates'!L10</f>
         <v>-4013.1</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="45">
         <f>-'Street Estimates'!M10</f>
         <v>-4482.66</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="45">
         <f>-'Street Estimates'!N10</f>
         <v>-3938.3399999999997</v>
       </c>
@@ -1262,33 +1279,33 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="36">
         <v>3.39E-2</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="44">
         <f>'Street Estimates'!I11</f>
         <v>1731</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="45">
         <f>'Street Estimates'!J11</f>
         <v>2015</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="45">
         <f>'Street Estimates'!K11</f>
         <v>1564</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="45">
         <f>'Street Estimates'!L11</f>
         <v>1121</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="45">
         <f>'Street Estimates'!M11</f>
         <v>1174</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="45">
         <f>'Street Estimates'!N11</f>
         <v>1223</v>
       </c>
@@ -1297,33 +1314,33 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="37">
         <v>14.5</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="44">
         <f>-'Street Estimates'!I12</f>
         <v>-1146</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="45">
         <f>-'Street Estimates'!J14</f>
         <v>-507</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="45">
         <f>-'Street Estimates'!K14</f>
         <v>-661</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="45">
         <f>-'Street Estimates'!L14</f>
         <v>-767</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="45">
         <f>-'Street Estimates'!M14</f>
         <v>-1000</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="45">
         <f>-'Street Estimates'!N14</f>
         <v>-1000</v>
       </c>
@@ -1332,33 +1349,33 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="36">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="44">
         <f>'Street Estimates'!I16</f>
         <v>8827</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="45">
         <f>'Street Estimates'!J16</f>
         <v>9065.3289999999997</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="45">
         <f>'Street Estimates'!K16</f>
         <v>8675.5198529999998</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="45">
         <f>'Street Estimates'!L16</f>
         <v>9143.9979250619999</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="45">
         <f>'Street Estimates'!M16</f>
         <v>8705.0860246590237</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="45">
         <f>'Street Estimates'!N16</f>
         <v>9070.6996376947027</v>
       </c>
@@ -1367,33 +1384,33 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="38">
         <v>0.21</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="20">
         <f>SUM(J6:J10)</f>
         <v>20410.235000000001</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="21">
         <f>SUM(K6:K10)</f>
         <v>24233.218999999997</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="21">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>23753.489852999999</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="21">
         <f t="shared" si="0"/>
         <v>24594.897925062</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="21">
         <f t="shared" si="0"/>
         <v>25742.426024659024</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="21">
         <f t="shared" si="0"/>
         <v>24109.359637694703</v>
       </c>
@@ -1402,18 +1419,18 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="36">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="34"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="37">
         <v>0.96</v>
       </c>
     </row>
@@ -1421,7 +1438,7 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="36">
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
@@ -1429,7 +1446,7 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="39">
         <v>41275</v>
       </c>
     </row>
@@ -1437,7 +1454,7 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="39">
         <v>12694</v>
       </c>
     </row>
@@ -1455,7 +1472,7 @@
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="22">
         <f>G12+G14*(G15-G12)</f>
         <v>6.2724000000000002E-2</v>
       </c>
@@ -1464,7 +1481,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="24">
         <f>G17/SUM(G16:G17)</f>
         <v>0.23520910152124366</v>
       </c>
@@ -1477,16 +1494,16 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="30">
+      <c r="G22" s="25">
         <f>G16/SUM(G16:G17)</f>
         <v>0.76479089847875636</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="22">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>5.6518243065463505E-2</v>
       </c>
@@ -1505,7 +1522,7 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f>O6+O8</f>
         <v>19977</v>
       </c>
@@ -1514,7 +1531,7 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f>G26*G9</f>
         <v>289666.5</v>
       </c>
@@ -1523,20 +1540,20 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>1102060.264241914</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <f>AVERAGE(G27:G28)</f>
         <v>695863.38212095702</v>
       </c>
@@ -1569,23 +1586,23 @@
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="26">
         <f>1/(1+$G$23)^K5</f>
         <v>0.94650518962978125</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="26">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.89587207399610824</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="26">
         <f t="shared" si="1"/>
         <v>0.84794756728171194</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="26">
         <f t="shared" si="1"/>
         <v>0.80258677296608849</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="26">
         <f t="shared" si="1"/>
         <v>0.75965254574062191</v>
       </c>
@@ -1594,23 +1611,23 @@
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <f>K11*G32</f>
         <v>22936.867544935016</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
         <v>21280.088219252622</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <f t="shared" si="2"/>
         <v>20855.183863098348</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <f t="shared" si="2"/>
         <v>20660.530631449339</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <f t="shared" si="2"/>
         <v>18314.736424950977</v>
       </c>
@@ -1627,16 +1644,16 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <f>K32*G29</f>
         <v>528614.38971586421</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="27">
         <f>SUM(G33:K34)</f>
         <v>632661.79639955051</v>
       </c>
@@ -1654,7 +1671,7 @@
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>20110</v>
       </c>
     </row>
@@ -1662,13 +1679,13 @@
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
@@ -1677,7 +1694,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="18">
+      <c r="F41" s="15">
         <f>G17</f>
         <v>12694</v>
       </c>
@@ -1686,13 +1703,13 @@
       <c r="B42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <f>F35+F38-F41</f>
         <v>640077.79639955051</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="13"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
@@ -1701,7 +1718,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="18">
+      <c r="F44" s="15">
         <v>4140</v>
       </c>
     </row>
@@ -1709,7 +1726,7 @@
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="26">
         <f>F42/F44</f>
         <v>154.60816338153393</v>
       </c>
@@ -1718,7 +1735,7 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="26">
         <f>F45-42.86</f>
         <v>111.74816338153393</v>
       </c>
@@ -1727,7 +1744,7 @@
       <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="28">
         <v>0.29249999999999998</v>
       </c>
     </row>
